--- a/data/trans_orig/P39C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P39C-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>32177</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22824</v>
+        <v>22542</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43457</v>
+        <v>44599</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1496407090386521</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1061414691728473</v>
+        <v>0.1048331656230067</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2020972765073861</v>
+        <v>0.2074089824918292</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -763,19 +763,19 @@
         <v>22899</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15043</v>
+        <v>15651</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34167</v>
+        <v>33858</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09382133264325157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06163447517542364</v>
+        <v>0.06412403808008227</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1399881075390273</v>
+        <v>0.1387224056125111</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -784,19 +784,19 @@
         <v>55076</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41995</v>
+        <v>42653</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71069</v>
+        <v>69842</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1199656244669608</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09147276754915376</v>
+        <v>0.09290561660998295</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1547999881064092</v>
+        <v>0.1521274596279325</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>83212</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>68403</v>
+        <v>69577</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>97814</v>
+        <v>97648</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3869762983200113</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3181088476698709</v>
+        <v>0.3235677836273581</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.454883965599839</v>
+        <v>0.4541115521376354</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>90</v>
@@ -834,19 +834,19 @@
         <v>88520</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74076</v>
+        <v>73967</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>104083</v>
+        <v>102457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3626811477893979</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3035032172321683</v>
+        <v>0.3030551752825639</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4264460524467799</v>
+        <v>0.419784451453706</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>169</v>
@@ -855,19 +855,19 @@
         <v>171731</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>150488</v>
+        <v>150926</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>191528</v>
+        <v>192151</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3740603416534419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3277885318799985</v>
+        <v>0.3287439755381103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4171805785692757</v>
+        <v>0.4185393106658297</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>51717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>38453</v>
+        <v>39214</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64748</v>
+        <v>65506</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2405091130387605</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1788273545761379</v>
+        <v>0.1823653524234659</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3011119328949903</v>
+        <v>0.3046377776790798</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>71</v>
@@ -905,19 +905,19 @@
         <v>70213</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>55847</v>
+        <v>57134</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>84270</v>
+        <v>85679</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2876769687336651</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2288154610656573</v>
+        <v>0.2340874651918851</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3452681568315242</v>
+        <v>0.3510442751034877</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>119</v>
@@ -926,19 +926,19 @@
         <v>121930</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>104428</v>
+        <v>104852</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>143854</v>
+        <v>142142</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2655848160866892</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2274629446024267</v>
+        <v>0.2283869924292961</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3133392566743056</v>
+        <v>0.3096095957031375</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>18840</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11915</v>
+        <v>11932</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28897</v>
+        <v>28690</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08761790304629763</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05540945577506317</v>
+        <v>0.05548898098433092</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.134387410145091</v>
+        <v>0.1334246476180402</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -976,19 +976,19 @@
         <v>21654</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14133</v>
+        <v>14675</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32096</v>
+        <v>31781</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08871993204735444</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05790471050098213</v>
+        <v>0.06012591670775573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1315029418871408</v>
+        <v>0.1302116814996253</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>40</v>
@@ -997,19 +997,19 @@
         <v>40494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>29567</v>
+        <v>30111</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>54123</v>
+        <v>53962</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08820377135795995</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06440304537443449</v>
+        <v>0.06558610279017231</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1178890683214558</v>
+        <v>0.1175392192315552</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>29084</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19957</v>
+        <v>19612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40149</v>
+        <v>40691</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1352559765562784</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09280996676279385</v>
+        <v>0.09120709875609043</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1867137636726514</v>
+        <v>0.1892324956482169</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -1047,19 +1047,19 @@
         <v>40784</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28850</v>
+        <v>29662</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52975</v>
+        <v>52395</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.167100618786331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1182018245471693</v>
+        <v>0.121531933133968</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2170481591367018</v>
+        <v>0.2146711267214334</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>68</v>
@@ -1068,19 +1068,19 @@
         <v>69868</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>55154</v>
+        <v>55048</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>85191</v>
+        <v>86048</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1521854464349482</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1201354376702335</v>
+        <v>0.1199035556379095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1855610965915933</v>
+        <v>0.1874281018287561</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>72233</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57858</v>
+        <v>56792</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>88515</v>
+        <v>89861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1916748429995384</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1535300377863403</v>
+        <v>0.1507016792904335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2348817253862293</v>
+        <v>0.2384530987722648</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1193,19 +1193,19 @@
         <v>48919</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35937</v>
+        <v>37122</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62945</v>
+        <v>61722</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1081577707301566</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07945524432161559</v>
+        <v>0.0820752617172904</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1391689214970135</v>
+        <v>0.1364639962677231</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -1214,19 +1214,19 @@
         <v>121152</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102009</v>
+        <v>103664</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>140877</v>
+        <v>144221</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1461166212958703</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.123029736818327</v>
+        <v>0.125025168020323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1699060521547281</v>
+        <v>0.1739392751737289</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>133767</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>114160</v>
+        <v>116496</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>151821</v>
+        <v>152351</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3549608548970133</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3029313470524361</v>
+        <v>0.3091308635185825</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.402869699726755</v>
+        <v>0.4042756869489764</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>146</v>
@@ -1264,19 +1264,19 @@
         <v>143051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>123601</v>
+        <v>123447</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162628</v>
+        <v>162542</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3162780854660358</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2732755491287192</v>
+        <v>0.2729344286505091</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3595615353405726</v>
+        <v>0.3593714734065463</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>276</v>
@@ -1285,19 +1285,19 @@
         <v>276818</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>250878</v>
+        <v>249544</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>304294</v>
+        <v>299768</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3338595622156315</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3025738313106117</v>
+        <v>0.3009654127100782</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3669973006810657</v>
+        <v>0.3615385043790084</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>106971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87870</v>
+        <v>90849</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>123739</v>
+        <v>124322</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2838563126026902</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2331693319858982</v>
+        <v>0.2410746399758845</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3283499443238344</v>
+        <v>0.3298967736041806</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -1335,19 +1335,19 @@
         <v>142110</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>122088</v>
+        <v>122446</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>162283</v>
+        <v>161378</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3141973650670727</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2699302843157645</v>
+        <v>0.2707208539466867</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3587999558785733</v>
+        <v>0.3567988792079424</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>252</v>
@@ -1356,19 +1356,19 @@
         <v>249081</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>223686</v>
+        <v>224338</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>277957</v>
+        <v>274897</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.300407232759906</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2697794223932025</v>
+        <v>0.2705659535810223</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3352333660467459</v>
+        <v>0.3315425562253518</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>26907</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18044</v>
+        <v>17758</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39796</v>
+        <v>38383</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07140017798533681</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04788123951345835</v>
+        <v>0.04712287776387145</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1056005083287014</v>
+        <v>0.1018516335582715</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -1406,19 +1406,19 @@
         <v>46803</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34822</v>
+        <v>33907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>61121</v>
+        <v>60778</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1034780058719805</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07699006456586181</v>
+        <v>0.07496612204849079</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1351359959170852</v>
+        <v>0.1343775081138182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>73</v>
@@ -1427,19 +1427,19 @@
         <v>73710</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58753</v>
+        <v>58267</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>91332</v>
+        <v>91918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08889850203958632</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07086008420029462</v>
+        <v>0.07027386688480122</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1101520158699506</v>
+        <v>0.1108588157888014</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>36972</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26524</v>
+        <v>26763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>49578</v>
+        <v>49681</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09810781151542136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07038439140422285</v>
+        <v>0.07101732238773935</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1315577508059291</v>
+        <v>0.1318330922708942</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -1477,19 +1477,19 @@
         <v>71412</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56021</v>
+        <v>56302</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>87737</v>
+        <v>87373</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1578887728647545</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1238595954382845</v>
+        <v>0.124480501172709</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1939828026367494</v>
+        <v>0.1931761423939092</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>108</v>
@@ -1498,19 +1498,19 @@
         <v>108384</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90525</v>
+        <v>90795</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>129511</v>
+        <v>129386</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1307180816890059</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1091782154239848</v>
+        <v>0.1095040830977572</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1561985047578923</v>
+        <v>0.1560472961141328</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>71870</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>56925</v>
+        <v>57251</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89611</v>
+        <v>88603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1388516557615321</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1099788712792131</v>
+        <v>0.110607949881361</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1731278561679695</v>
+        <v>0.1711806638393409</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -1623,19 +1623,19 @@
         <v>77629</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61515</v>
+        <v>61901</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95182</v>
+        <v>94785</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1428887659788874</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1132296142342415</v>
+        <v>0.1139398252677977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1751980605086482</v>
+        <v>0.1744673124615514</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>147</v>
@@ -1644,19 +1644,19 @@
         <v>149498</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>129381</v>
+        <v>127977</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>172563</v>
+        <v>173319</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1409190746389393</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1219564885860032</v>
+        <v>0.1206325895238397</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.162660234405096</v>
+        <v>0.1633728809877557</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>166667</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146090</v>
+        <v>145467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>187867</v>
+        <v>188495</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3219997850027468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2822456088227795</v>
+        <v>0.2810411257243633</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3629588218015598</v>
+        <v>0.3641715198032932</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -1694,19 +1694,19 @@
         <v>157667</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139498</v>
+        <v>137338</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>178901</v>
+        <v>178602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2902119463025467</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2567694516084444</v>
+        <v>0.252794544877138</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3292975127617239</v>
+        <v>0.3287479146254461</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>321</v>
@@ -1715,19 +1715,19 @@
         <v>324334</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>297522</v>
+        <v>295880</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>353351</v>
+        <v>354120</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.305721116781541</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2804484562655222</v>
+        <v>0.278900628884321</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3330731855385499</v>
+        <v>0.3337980474361626</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>161055</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>140196</v>
+        <v>139462</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182255</v>
+        <v>185205</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3111574220198917</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2708587467890628</v>
+        <v>0.2694393777102226</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.352115342764097</v>
+        <v>0.3578143155045546</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>154</v>
@@ -1765,19 +1765,19 @@
         <v>154492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>134724</v>
+        <v>133070</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>174591</v>
+        <v>173968</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2843679198403558</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2479819466753057</v>
+        <v>0.2449377004644668</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.321363425394175</v>
+        <v>0.3202178624902043</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>308</v>
@@ -1786,19 +1786,19 @@
         <v>315547</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>286515</v>
+        <v>287553</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>344456</v>
+        <v>343331</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2974384201744095</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2700730466807059</v>
+        <v>0.271051066367678</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3246889278632849</v>
+        <v>0.3236284425084564</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>55074</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41544</v>
+        <v>41599</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>70722</v>
+        <v>70965</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1064033882355077</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08026289436510683</v>
+        <v>0.08036936258681389</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1366351569881476</v>
+        <v>0.1371039041029663</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -1836,19 +1836,19 @@
         <v>61727</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48278</v>
+        <v>49449</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>77027</v>
+        <v>78046</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1136194623174661</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0888633083150854</v>
+        <v>0.0910192460693079</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1417802670539955</v>
+        <v>0.1436574222314455</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>112</v>
@@ -1857,19 +1857,19 @@
         <v>116802</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>97770</v>
+        <v>94038</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>137516</v>
+        <v>137318</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1100987661109184</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09215914411134003</v>
+        <v>0.08864153102285217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1296247214584628</v>
+        <v>0.1294376004181919</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>62934</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49209</v>
+        <v>47265</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79460</v>
+        <v>78744</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1215877489803216</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09507172860099296</v>
+        <v>0.09131635966278094</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1535167432253691</v>
+        <v>0.1521329384400465</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>93</v>
@@ -1907,19 +1907,19 @@
         <v>91767</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75875</v>
+        <v>76161</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>111458</v>
+        <v>109683</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.168911905560744</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.139660812967318</v>
+        <v>0.1401868499741891</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2051573320136895</v>
+        <v>0.2018893825828182</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>152</v>
@@ -1928,19 +1928,19 @@
         <v>154700</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>133099</v>
+        <v>133685</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>177007</v>
+        <v>180638</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1458226222941918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1254609858601937</v>
+        <v>0.1260129145105731</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1668486071231916</v>
+        <v>0.1702714911484978</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>73878</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57554</v>
+        <v>58089</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>91559</v>
+        <v>91329</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1387209393091084</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1080701319954896</v>
+        <v>0.1090746164779905</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1719208139804902</v>
+        <v>0.171488445933356</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -2053,19 +2053,19 @@
         <v>60922</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48351</v>
+        <v>47339</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>76407</v>
+        <v>77276</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1072941996254101</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0851544008640695</v>
+        <v>0.08337151468381791</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1345649514794497</v>
+        <v>0.1360961087156125</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>126</v>
@@ -2074,19 +2074,19 @@
         <v>134800</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>113879</v>
+        <v>111965</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>157234</v>
+        <v>158053</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1225042951077826</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1034911203705187</v>
+        <v>0.101751699113686</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.142891690252014</v>
+        <v>0.1436363756120079</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>143387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>122543</v>
+        <v>125211</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>165134</v>
+        <v>166841</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2692385116010354</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2301001726980583</v>
+        <v>0.2351095874616545</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3100735108703605</v>
+        <v>0.3132789475936233</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>160</v>
@@ -2124,19 +2124,19 @@
         <v>172891</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>150411</v>
+        <v>151706</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>195219</v>
+        <v>195004</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3044886305100835</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2648978368540278</v>
+        <v>0.2671792226195268</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.343812982178802</v>
+        <v>0.3434344368288003</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>290</v>
@@ -2145,19 +2145,19 @@
         <v>316278</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>285628</v>
+        <v>284580</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>349254</v>
+        <v>350185</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2874280738068464</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2595738952711626</v>
+        <v>0.2586211927706173</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.317396491701568</v>
+        <v>0.3182419745104115</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>154165</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>132185</v>
+        <v>133327</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>176597</v>
+        <v>176813</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2894771572240709</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2482042474869288</v>
+        <v>0.2503489671305371</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3315985942358834</v>
+        <v>0.3320026392859088</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>151</v>
@@ -2195,19 +2195,19 @@
         <v>165067</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>144031</v>
+        <v>144218</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>188108</v>
+        <v>190382</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2907094204384027</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2536627618678928</v>
+        <v>0.2539908813731716</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3312884171269634</v>
+        <v>0.3352937076695658</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>290</v>
@@ -2216,19 +2216,19 @@
         <v>319232</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>288396</v>
+        <v>289997</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>350758</v>
+        <v>351363</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2901130225511881</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2620894877047956</v>
+        <v>0.2635441610631266</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3187630251455502</v>
+        <v>0.3193127644987986</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>67937</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53264</v>
+        <v>52803</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>84769</v>
+        <v>85190</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1275658003962185</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1000133845893423</v>
+        <v>0.09914908700149168</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1591709951132028</v>
+        <v>0.1599618993949113</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>75</v>
@@ -2266,19 +2266,19 @@
         <v>78822</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62363</v>
+        <v>63032</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>96686</v>
+        <v>95338</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1388186404178834</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1098312477375669</v>
+        <v>0.1110103435995517</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1702791598214267</v>
+        <v>0.167904933374811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>136</v>
@@ -2287,19 +2287,19 @@
         <v>146759</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>125376</v>
+        <v>125335</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>171338</v>
+        <v>171725</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1333724257325539</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1139400561024889</v>
+        <v>0.1139020947749234</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1557091925529512</v>
+        <v>0.1560612079812014</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>93197</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>73896</v>
+        <v>76071</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111445</v>
+        <v>114028</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1749975914695668</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1387553287600914</v>
+        <v>0.1428386447210679</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2092620979307009</v>
+        <v>0.2141106126877577</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -2337,19 +2337,19 @@
         <v>90105</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73972</v>
+        <v>73823</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>108214</v>
+        <v>111084</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1586891090082203</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1302762332469774</v>
+        <v>0.1300146834614708</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1905817114658507</v>
+        <v>0.1956375960557361</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>167</v>
@@ -2358,19 +2358,19 @@
         <v>183302</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>158399</v>
+        <v>158600</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>209429</v>
+        <v>208828</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1665821828016291</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1439508434247577</v>
+        <v>0.1441328938033845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1903258443353259</v>
+        <v>0.1897795620743756</v>
       </c>
     </row>
     <row r="27">
@@ -2462,19 +2462,19 @@
         <v>42541</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31011</v>
+        <v>30658</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>56975</v>
+        <v>56556</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09818829072906661</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07157659659862914</v>
+        <v>0.0707605722796887</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1315023260753266</v>
+        <v>0.1305366822019986</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>21</v>
@@ -2483,19 +2483,19 @@
         <v>24961</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>15952</v>
+        <v>14884</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>36978</v>
+        <v>36283</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05515086723076881</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0352467556942362</v>
+        <v>0.0328873110369052</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.08170412554885879</v>
+        <v>0.080168698158455</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>59</v>
@@ -2504,19 +2504,19 @@
         <v>67502</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>52562</v>
+        <v>52241</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>84498</v>
+        <v>86051</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07620011788269382</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0593357323225434</v>
+        <v>0.05897327541691401</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09538711437424878</v>
+        <v>0.0971402261561863</v>
       </c>
     </row>
     <row r="29">
@@ -2533,19 +2533,19 @@
         <v>101856</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>83688</v>
+        <v>82526</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>122768</v>
+        <v>120438</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2350912226519059</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1931578933149646</v>
+        <v>0.1904768169892463</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2833573330353765</v>
+        <v>0.277980846252951</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>92</v>
@@ -2554,19 +2554,19 @@
         <v>106229</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89863</v>
+        <v>88633</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>127632</v>
+        <v>126623</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2347161091751658</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1985539979340945</v>
+        <v>0.195835573325281</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2820050246491915</v>
+        <v>0.2797754703068234</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>182</v>
@@ -2575,19 +2575,19 @@
         <v>208085</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>183566</v>
+        <v>181523</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>237148</v>
+        <v>235863</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2348995740983188</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2072203424820402</v>
+        <v>0.2049149270162815</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2677069553968633</v>
+        <v>0.2662571629365348</v>
       </c>
     </row>
     <row r="30">
@@ -2604,19 +2604,19 @@
         <v>126610</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>108177</v>
+        <v>107077</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>147382</v>
+        <v>144938</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2922255671765819</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2496799041719345</v>
+        <v>0.2471417369969746</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3401691759487946</v>
+        <v>0.3345275299679032</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>117</v>
@@ -2625,19 +2625,19 @@
         <v>134696</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>114339</v>
+        <v>112992</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>156523</v>
+        <v>154117</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2976138031776148</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2526347067467901</v>
+        <v>0.2496573238337713</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3458416498404763</v>
+        <v>0.3405250027446107</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>231</v>
@@ -2646,19 +2646,19 @@
         <v>261306</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>233858</v>
+        <v>233793</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>289849</v>
+        <v>291323</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2949784611673769</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2639931380619105</v>
+        <v>0.2639200297339931</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3271999693116868</v>
+        <v>0.3288637144629491</v>
       </c>
     </row>
     <row r="31">
@@ -2675,19 +2675,19 @@
         <v>72407</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>57050</v>
+        <v>57518</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>89675</v>
+        <v>89096</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1671212303843881</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1316753053307797</v>
+        <v>0.1327555968021946</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2069764481627059</v>
+        <v>0.2056413847099322</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -2696,19 +2696,19 @@
         <v>75339</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>60154</v>
+        <v>61663</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>95446</v>
+        <v>94281</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1664623739307068</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1329112057096249</v>
+        <v>0.1362458668391121</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2108899042660457</v>
+        <v>0.2083162936754742</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>130</v>
@@ -2717,19 +2717,19 @@
         <v>147746</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>125415</v>
+        <v>126964</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>172214</v>
+        <v>175166</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1667846152153814</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1415766503859815</v>
+        <v>0.143325136971754</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.194405533215202</v>
+        <v>0.1977378647982261</v>
       </c>
     </row>
     <row r="32">
@@ -2746,19 +2746,19 @@
         <v>89847</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>74332</v>
+        <v>72075</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>107550</v>
+        <v>108303</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2073736890580574</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1715636602937101</v>
+        <v>0.1663539565679469</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2482334484423403</v>
+        <v>0.2499719202676216</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>98</v>
@@ -2767,19 +2767,19 @@
         <v>111362</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>92561</v>
+        <v>93504</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>130549</v>
+        <v>130729</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2460568464857437</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2045146895284551</v>
+        <v>0.2065989351475915</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.288451687773096</v>
+        <v>0.2888473342425157</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>179</v>
@@ -2788,19 +2788,19 @@
         <v>201209</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>176980</v>
+        <v>174019</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>228447</v>
+        <v>226820</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2271372316362291</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1997858698143272</v>
+        <v>0.1964435600414595</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2578853528934785</v>
+        <v>0.2560485173744774</v>
       </c>
     </row>
     <row r="33">
@@ -2892,19 +2892,19 @@
         <v>12917</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>7067</v>
+        <v>6682</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>21951</v>
+        <v>22130</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04033931444630488</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02207204744837196</v>
+        <v>0.02086778965206766</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06855371970843088</v>
+        <v>0.06911207983376333</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2913,19 +2913,19 @@
         <v>8932</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>4141</v>
+        <v>4217</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>17375</v>
+        <v>17576</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02455993559788232</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01138588698203214</v>
+        <v>0.01159426419231158</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04777562855763368</v>
+        <v>0.04832878947355221</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>20</v>
@@ -2934,19 +2934,19 @@
         <v>21848</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13716</v>
+        <v>13839</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>33483</v>
+        <v>33784</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03194806595829101</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02005701816360544</v>
+        <v>0.02023572449264678</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04896021578624013</v>
+        <v>0.04940073773382569</v>
       </c>
     </row>
     <row r="35">
@@ -2966,16 +2966,16 @@
         <v>54243</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>83553</v>
+        <v>82923</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2099568832371334</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1694033251772266</v>
+        <v>0.1694046783149407</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2609411423180722</v>
+        <v>0.2589711608237531</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>49</v>
@@ -2984,19 +2984,19 @@
         <v>52473</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>38936</v>
+        <v>39174</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>67722</v>
+        <v>67222</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1442865286561781</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.10706170299726</v>
+        <v>0.107718075752647</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1862150686589824</v>
+        <v>0.1848400364396056</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>116</v>
@@ -3005,19 +3005,19 @@
         <v>119702</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>100376</v>
+        <v>100822</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>141963</v>
+        <v>140415</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1750343258362212</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1467748112300598</v>
+        <v>0.1474271787918773</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2075868496774622</v>
+        <v>0.2053230799753588</v>
       </c>
     </row>
     <row r="36">
@@ -3034,19 +3034,19 @@
         <v>93570</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>77470</v>
+        <v>78081</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>109992</v>
+        <v>109362</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2922250088356584</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2419416877409374</v>
+        <v>0.2438498675229686</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3435091181508099</v>
+        <v>0.3415418505190648</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>120</v>
@@ -3055,19 +3055,19 @@
         <v>127396</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>110758</v>
+        <v>110562</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>145445</v>
+        <v>146432</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3503025242287716</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.304553264156582</v>
+        <v>0.3040128647426343</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3999313551067183</v>
+        <v>0.4026447056982161</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>213</v>
@@ -3076,19 +3076,19 @@
         <v>220967</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>196277</v>
+        <v>197023</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>247635</v>
+        <v>246063</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3231098027119891</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2870065411969903</v>
+        <v>0.2880980527381914</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3621054978845121</v>
+        <v>0.3598069533237792</v>
       </c>
     </row>
     <row r="37">
@@ -3105,19 +3105,19 @@
         <v>61022</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>47945</v>
+        <v>48879</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>77323</v>
+        <v>76781</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1905739321940934</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1497350799212888</v>
+        <v>0.1526508043741141</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2414834597194238</v>
+        <v>0.2397893763549803</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -3126,19 +3126,19 @@
         <v>74459</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>58953</v>
+        <v>60044</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>91668</v>
+        <v>91444</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2047399553336524</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1621036168522268</v>
+        <v>0.1651028135712685</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2520608202895975</v>
+        <v>0.2514449689809516</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>127</v>
@@ -3147,19 +3147,19 @@
         <v>135481</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>113300</v>
+        <v>115063</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>155643</v>
+        <v>158149</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1981072211399303</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1656738684560221</v>
+        <v>0.1682515126625428</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2275901590973955</v>
+        <v>0.2312540183121003</v>
       </c>
     </row>
     <row r="38">
@@ -3176,19 +3176,19 @@
         <v>85463</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>69590</v>
+        <v>70464</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>100768</v>
+        <v>101553</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2669048612868098</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2173321855856847</v>
+        <v>0.2200631694823448</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3147036633341472</v>
+        <v>0.3171560416127926</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>93</v>
@@ -3197,19 +3197,19 @@
         <v>100415</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>84377</v>
+        <v>83030</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>118599</v>
+        <v>118607</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2761110561835156</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2320116072915318</v>
+        <v>0.2283069352784571</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3261120773175362</v>
+        <v>0.3261348565382998</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>175</v>
@@ -3218,19 +3218,19 @@
         <v>185878</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>164534</v>
+        <v>161627</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>210262</v>
+        <v>209169</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2718005843535683</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2405908134920114</v>
+        <v>0.2363396717470565</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3074565206857486</v>
+        <v>0.3058580587144145</v>
       </c>
     </row>
     <row r="39">
@@ -3322,19 +3322,19 @@
         <v>6579</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2534</v>
+        <v>3233</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>12675</v>
+        <v>12442</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02703105992054539</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01041164285627114</v>
+        <v>0.01328530502322354</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05208005205312426</v>
+        <v>0.05112392510638933</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>6</v>
@@ -3343,19 +3343,19 @@
         <v>7898</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>3150</v>
+        <v>2786</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>16715</v>
+        <v>15863</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.02059938215687988</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.008216134063303994</v>
+        <v>0.007267439421253892</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04359880530723053</v>
+        <v>0.04137663418464076</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>14</v>
@@ -3364,19 +3364,19 @@
         <v>14476</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8466</v>
+        <v>8530</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>23004</v>
+        <v>24650</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.02309684477978193</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01350681089416944</v>
+        <v>0.0136099384031858</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03670239726699201</v>
+        <v>0.03932974584419011</v>
       </c>
     </row>
     <row r="41">
@@ -3393,19 +3393,19 @@
         <v>28989</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>20777</v>
+        <v>20335</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>39411</v>
+        <v>39209</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1191140147220676</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.08536953117067198</v>
+        <v>0.08355208410946589</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1619334547881494</v>
+        <v>0.1611027023009578</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>45</v>
@@ -3414,19 +3414,19 @@
         <v>58968</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>44824</v>
+        <v>44393</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>77166</v>
+        <v>77024</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1538070418208453</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1169168842643969</v>
+        <v>0.1157929123358861</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2012752337905542</v>
+        <v>0.2009038056629003</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>80</v>
@@ -3435,19 +3435,19 @@
         <v>87957</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>71587</v>
+        <v>70364</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>107659</v>
+        <v>108510</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.14033551205236</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1142163761375618</v>
+        <v>0.112265043971599</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1717696290770566</v>
+        <v>0.1731275507831959</v>
       </c>
     </row>
     <row r="42">
@@ -3464,19 +3464,19 @@
         <v>73576</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>61098</v>
+        <v>61230</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>87525</v>
+        <v>87317</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3023141110096547</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2510425805894755</v>
+        <v>0.2515867844430725</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3596284743007263</v>
+        <v>0.3587756102268723</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>93</v>
@@ -3485,19 +3485,19 @@
         <v>121173</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>102075</v>
+        <v>100832</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>142457</v>
+        <v>143182</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3160594378986059</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.26624551275484</v>
+        <v>0.2630028811685257</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3715737783428425</v>
+        <v>0.3734658583478179</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>181</v>
@@ -3506,19 +3506,19 @@
         <v>194749</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>169393</v>
+        <v>170694</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>218381</v>
+        <v>221146</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3107220373934597</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2702663849187165</v>
+        <v>0.2723415157421586</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3484256413992322</v>
+        <v>0.3528385151153843</v>
       </c>
     </row>
     <row r="43">
@@ -3535,19 +3535,19 @@
         <v>61896</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>51007</v>
+        <v>49345</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>75278</v>
+        <v>74439</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2543211919555269</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2095811377025575</v>
+        <v>0.2027523210823811</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3093056513309653</v>
+        <v>0.305862084452598</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>51</v>
@@ -3556,19 +3556,19 @@
         <v>70217</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>52435</v>
+        <v>54665</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>87964</v>
+        <v>87342</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1831487749367617</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1367671197703335</v>
+        <v>0.1425843357715479</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2294381248831397</v>
+        <v>0.2278156246527485</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>124</v>
@@ -3577,19 +3577,19 @@
         <v>132113</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>113913</v>
+        <v>112856</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>155662</v>
+        <v>153465</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2107854908633788</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1817482188737026</v>
+        <v>0.1800617886080356</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2483578657681514</v>
+        <v>0.2448525240330293</v>
       </c>
     </row>
     <row r="44">
@@ -3606,19 +3606,19 @@
         <v>72336</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>60710</v>
+        <v>58880</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>86872</v>
+        <v>85161</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2972196223922053</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2494514016749813</v>
+        <v>0.2419310306517838</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3569439166649895</v>
+        <v>0.3499171541052019</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>94</v>
@@ -3627,19 +3627,19 @@
         <v>125132</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>105272</v>
+        <v>105968</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>146087</v>
+        <v>148167</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3263853631869073</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.274584156522135</v>
+        <v>0.27639913862356</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3810430314969314</v>
+        <v>0.3864684915234446</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>176</v>
@@ -3648,19 +3648,19 @@
         <v>197468</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>173737</v>
+        <v>174494</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>222673</v>
+        <v>223663</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3150601149110197</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2771970352257848</v>
+        <v>0.2784042638110407</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3552746082726431</v>
+        <v>0.3568538325669738</v>
       </c>
     </row>
     <row r="45">
@@ -3752,19 +3752,19 @@
         <v>312194</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>280149</v>
+        <v>279006</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>346991</v>
+        <v>346326</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1183053623715739</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1061620052243525</v>
+        <v>0.1057290640605033</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1314915337357781</v>
+        <v>0.1312395966370927</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>244</v>
@@ -3773,19 +3773,19 @@
         <v>252159</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>224387</v>
+        <v>223001</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>284759</v>
+        <v>282235</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.08385458523446856</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07461884786414635</v>
+        <v>0.07415820237683413</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.09469531426377095</v>
+        <v>0.09385622758994712</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>540</v>
@@ -3794,19 +3794,19 @@
         <v>564353</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>518764</v>
+        <v>520555</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>614047</v>
+        <v>612810</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.09995656395976238</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.09188194322196547</v>
+        <v>0.09219923009445265</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1087581970964964</v>
+        <v>0.1085391297784295</v>
       </c>
     </row>
     <row r="47">
@@ -3823,19 +3823,19 @@
         <v>725106</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>678517</v>
+        <v>679134</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>771944</v>
+        <v>776546</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2747777685794051</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2571229222730343</v>
+        <v>0.2573566615130033</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.292527126993834</v>
+        <v>0.2942709672704982</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>743</v>
@@ -3844,19 +3844,19 @@
         <v>779799</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>727465</v>
+        <v>734228</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>826319</v>
+        <v>830283</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2593189426767597</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2419156847843827</v>
+        <v>0.2441646225700263</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2747889443686105</v>
+        <v>0.2761071541831974</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1434</v>
@@ -3865,19 +3865,19 @@
         <v>1504905</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1444244</v>
+        <v>1441142</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1575851</v>
+        <v>1576465</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2665442567766939</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2558002746483045</v>
+        <v>0.2552507565633778</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2791100025651043</v>
+        <v>0.2792188629613692</v>
       </c>
     </row>
     <row r="48">
@@ -3894,19 +3894,19 @@
         <v>767665</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>718970</v>
+        <v>720259</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>813177</v>
+        <v>819082</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2909053125407814</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2724526368300417</v>
+        <v>0.2729409310412323</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3081521740510016</v>
+        <v>0.3103898698835959</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>854</v>
@@ -3915,19 +3915,19 @@
         <v>915148</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>862063</v>
+        <v>864390</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>967672</v>
+        <v>969802</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3043286282512527</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2866755531196724</v>
+        <v>0.2874493153390477</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3217955000501118</v>
+        <v>0.3225037178350421</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1594</v>
@@ -3936,19 +3936,19 @@
         <v>1682812</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1615814</v>
+        <v>1612343</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1754630</v>
+        <v>1755488</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2980546930325283</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.286188150843933</v>
+        <v>0.2855734903136756</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3107749567272546</v>
+        <v>0.3109268367281766</v>
       </c>
     </row>
     <row r="49">
@@ -3965,19 +3965,19 @@
         <v>364084</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>323994</v>
+        <v>327680</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>402238</v>
+        <v>403180</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1379689300841478</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1227769934351146</v>
+        <v>0.1241739694003568</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1524275372782873</v>
+        <v>0.1527844505869271</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>394</v>
@@ -3986,19 +3986,19 @@
         <v>429020</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>387577</v>
+        <v>392802</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>468986</v>
+        <v>471558</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1426690216199882</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1288870593168109</v>
+        <v>0.1306247978874223</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.155959451242087</v>
+        <v>0.1568146031779057</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>742</v>
@@ -4007,19 +4007,19 @@
         <v>793104</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>742368</v>
+        <v>738380</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>846087</v>
+        <v>846946</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1404722417442877</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.131486076614714</v>
+        <v>0.1307796341013513</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1498563683823294</v>
+        <v>0.1500085944762298</v>
       </c>
     </row>
     <row r="50">
@@ -4036,19 +4036,19 @@
         <v>469833</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>428878</v>
+        <v>429321</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>508386</v>
+        <v>507596</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1780426264240918</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1625227442505029</v>
+        <v>0.1626906209744237</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1926522338847255</v>
+        <v>0.1923529150895413</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>575</v>
@@ -4057,19 +4057,19 @@
         <v>630977</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>586522</v>
+        <v>587611</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>678909</v>
+        <v>677740</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.2098288222175308</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1950454764004901</v>
+        <v>0.1954077627425918</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2257684057481896</v>
+        <v>0.2253798553800772</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1025</v>
@@ -4078,19 +4078,19 @@
         <v>1100810</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1038855</v>
+        <v>1038103</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1169323</v>
+        <v>1158493</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1949722444867277</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.1839988774857225</v>
+        <v>0.1838657272612243</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.207107072306554</v>
+        <v>0.2051888003613622</v>
       </c>
     </row>
     <row r="51">
@@ -4425,19 +4425,19 @@
         <v>32378</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19217</v>
+        <v>18714</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>50330</v>
+        <v>49139</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1859753489329163</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1103804150690692</v>
+        <v>0.1074902354039476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2890892717642001</v>
+        <v>0.2822462372998602</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4446,19 +4446,19 @@
         <v>28376</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17601</v>
+        <v>18760</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41446</v>
+        <v>43282</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1358623373364861</v>
+        <v>0.135862337336486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08427197995725576</v>
+        <v>0.08981821214919856</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1984376003786124</v>
+        <v>0.2072273178842054</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>37</v>
@@ -4467,19 +4467,19 @@
         <v>60754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44582</v>
+        <v>43303</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81431</v>
+        <v>82052</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1586442537452542</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1164145591759988</v>
+        <v>0.1130732381726743</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2126358494921343</v>
+        <v>0.2142582563116807</v>
       </c>
     </row>
     <row r="5">
@@ -4496,19 +4496,19 @@
         <v>63252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44245</v>
+        <v>44298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84259</v>
+        <v>84192</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3633141542343735</v>
+        <v>0.3633141542343736</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2541377539654203</v>
+        <v>0.2544445091429</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4839743207307334</v>
+        <v>0.4835914619699742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -4517,19 +4517,19 @@
         <v>51076</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>34340</v>
+        <v>34837</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69191</v>
+        <v>69313</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2445452887907928</v>
+        <v>0.2445452887907927</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1644140012957883</v>
+        <v>0.1667957835497422</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3312784650142424</v>
+        <v>0.3318617669554496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>57</v>
@@ -4538,19 +4538,19 @@
         <v>114328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>87998</v>
+        <v>90531</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>142492</v>
+        <v>144086</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2985388980013123</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2297841192239059</v>
+        <v>0.236399117391647</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3720813749034821</v>
+        <v>0.3762436822796298</v>
       </c>
     </row>
     <row r="6">
@@ -4567,19 +4567,19 @@
         <v>46542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29444</v>
+        <v>29569</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67499</v>
+        <v>68543</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2673302655435463</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1691204393100639</v>
+        <v>0.1698437033962535</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3877048575352525</v>
+        <v>0.3937036205412101</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>30</v>
@@ -4588,19 +4588,19 @@
         <v>51216</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36411</v>
+        <v>36822</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>69541</v>
+        <v>69583</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2452137791830207</v>
+        <v>0.2452137791830208</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1743299861140363</v>
+        <v>0.1762976635052527</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3329511610371087</v>
+        <v>0.3331517918098832</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>49</v>
@@ -4609,19 +4609,19 @@
         <v>97757</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>76071</v>
+        <v>72891</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>125009</v>
+        <v>125450</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2552681727919861</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1986396156402764</v>
+        <v>0.1903363304925086</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3264293488000005</v>
+        <v>0.3275811608794436</v>
       </c>
     </row>
     <row r="7">
@@ -4638,19 +4638,19 @@
         <v>19947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8878</v>
+        <v>8837</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37835</v>
+        <v>40321</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1145714815338282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05099494819273551</v>
+        <v>0.05076038058866232</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2173180547003643</v>
+        <v>0.2315998453264671</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4659,19 +4659,19 @@
         <v>22564</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>12956</v>
+        <v>12237</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37284</v>
+        <v>36847</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1080313707913783</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06203327718479189</v>
+        <v>0.05858681536371699</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1785121049270028</v>
+        <v>0.1764183424053769</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -4680,19 +4680,19 @@
         <v>42510</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>27078</v>
+        <v>26722</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>65539</v>
+        <v>65283</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1110045757832969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07070670371505362</v>
+        <v>0.06977844680488254</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1711386030867271</v>
+        <v>0.1704694156975785</v>
       </c>
     </row>
     <row r="8">
@@ -4709,19 +4709,19 @@
         <v>11979</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4881</v>
+        <v>4557</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>26885</v>
+        <v>25586</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06880874975533556</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02803580668480886</v>
+        <v>0.02617471389376131</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.154426913838463</v>
+        <v>0.1469608925626526</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>29</v>
@@ -4730,19 +4730,19 @@
         <v>55630</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38332</v>
+        <v>39001</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>77205</v>
+        <v>76407</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.266347223898322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1835294234472542</v>
+        <v>0.186731897250304</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3696462722939352</v>
+        <v>0.3658262602213198</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -4751,19 +4751,19 @@
         <v>67609</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48174</v>
+        <v>47709</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>93053</v>
+        <v>90843</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1765440996781505</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1257931512272415</v>
+        <v>0.1245793551255106</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2429838783619133</v>
+        <v>0.2372129193288133</v>
       </c>
     </row>
     <row r="9">
@@ -4855,19 +4855,19 @@
         <v>38467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25785</v>
+        <v>25893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57339</v>
+        <v>54411</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1286027768544779</v>
+        <v>0.1286027768544778</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08620519251050036</v>
+        <v>0.08656610112081339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1916945946393483</v>
+        <v>0.1819060399245219</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -4876,19 +4876,19 @@
         <v>40955</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29623</v>
+        <v>29853</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54267</v>
+        <v>53909</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1089612836263218</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07881212860295343</v>
+        <v>0.07942535693461784</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1443781927530302</v>
+        <v>0.1434257911648894</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>66</v>
@@ -4897,19 +4897,19 @@
         <v>79422</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62019</v>
+        <v>63284</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98922</v>
+        <v>103328</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1176653238674887</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09188212069640314</v>
+        <v>0.09375610295098837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1465553198106269</v>
+        <v>0.1530824539605273</v>
       </c>
     </row>
     <row r="11">
@@ -4926,19 +4926,19 @@
         <v>111321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>89551</v>
+        <v>90732</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132380</v>
+        <v>134533</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3721684358122971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2993880952646846</v>
+        <v>0.3033356606836823</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4425723533051282</v>
+        <v>0.4497696016038989</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>111</v>
@@ -4947,19 +4947,19 @@
         <v>121699</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>102760</v>
+        <v>103207</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143024</v>
+        <v>140925</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3237827392661133</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2733932611556847</v>
+        <v>0.2745833303952387</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3805185852529763</v>
+        <v>0.3749322165398528</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>186</v>
@@ -4968,19 +4968,19 @@
         <v>233020</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>206147</v>
+        <v>203840</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>262599</v>
+        <v>262903</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3452246451814516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3054106572791114</v>
+        <v>0.3019927096869416</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3890459734546267</v>
+        <v>0.3894970381923598</v>
       </c>
     </row>
     <row r="12">
@@ -4997,19 +4997,19 @@
         <v>91882</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72427</v>
+        <v>73250</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>114058</v>
+        <v>114214</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3071801480134383</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2421370669632089</v>
+        <v>0.2448898158159934</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3813168664097589</v>
+        <v>0.3818387863656513</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -5018,19 +5018,19 @@
         <v>100661</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>82400</v>
+        <v>84291</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>118374</v>
+        <v>117952</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.267808902614999</v>
+        <v>0.2678089026149989</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2192258901740564</v>
+        <v>0.22425630054829</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3149371302236219</v>
+        <v>0.3138141959167676</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>152</v>
@@ -5039,19 +5039,19 @@
         <v>192543</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>166044</v>
+        <v>169543</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>221773</v>
+        <v>222976</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2852560946544326</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2459976797197869</v>
+        <v>0.2511812594769655</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3285617002523373</v>
+        <v>0.330343430498882</v>
       </c>
     </row>
     <row r="13">
@@ -5068,19 +5068,19 @@
         <v>31621</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18502</v>
+        <v>20073</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47471</v>
+        <v>49765</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1057159050126094</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06185554662878605</v>
+        <v>0.0671080461507812</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1587052139491032</v>
+        <v>0.1663740550110751</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -5089,19 +5089,19 @@
         <v>47461</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>34447</v>
+        <v>33624</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>62664</v>
+        <v>61523</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.126269760421248</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09164802908250105</v>
+        <v>0.08945647856705283</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1667191826377788</v>
+        <v>0.1636821113341758</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>62</v>
@@ -5110,19 +5110,19 @@
         <v>79082</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62239</v>
+        <v>59825</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>101808</v>
+        <v>99818</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1171614109434465</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09220785719135002</v>
+        <v>0.08863236086046893</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1508304243706888</v>
+        <v>0.1478819743446005</v>
       </c>
     </row>
     <row r="14">
@@ -5139,19 +5139,19 @@
         <v>25823</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16229</v>
+        <v>16526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40200</v>
+        <v>39899</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08633273430717739</v>
+        <v>0.08633273430717736</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05425602558263026</v>
+        <v>0.05524973607037508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1343968483843605</v>
+        <v>0.1333911501842459</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>61</v>
@@ -5160,19 +5160,19 @@
         <v>65092</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>50969</v>
+        <v>50997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81115</v>
+        <v>82677</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.173177314071318</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1356049290012945</v>
+        <v>0.1356776295082341</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2158072669906149</v>
+        <v>0.2199629225126106</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>78</v>
@@ -5181,19 +5181,19 @@
         <v>90915</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>72239</v>
+        <v>72896</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>111715</v>
+        <v>112757</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1346925253531806</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1070233946201952</v>
+        <v>0.1079969091919986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1655083221466773</v>
+        <v>0.1670517802801479</v>
       </c>
     </row>
     <row r="15">
@@ -5285,19 +5285,19 @@
         <v>52430</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38699</v>
+        <v>38378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68127</v>
+        <v>67700</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1130797181543159</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.08346560942533557</v>
+        <v>0.08277200231238706</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1469347232213174</v>
+        <v>0.14601199074109</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>67</v>
@@ -5306,19 +5306,19 @@
         <v>51058</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39546</v>
+        <v>38934</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62885</v>
+        <v>63003</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.09772506434428782</v>
+        <v>0.09772506434428783</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07569130903096277</v>
+        <v>0.07451940338224163</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1203617603079651</v>
+        <v>0.1205876626432298</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>112</v>
@@ -5327,19 +5327,19 @@
         <v>103488</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>86919</v>
+        <v>86027</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>125299</v>
+        <v>124146</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1049445708351715</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08814221150065731</v>
+        <v>0.08723733387925127</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1270621399773391</v>
+        <v>0.1258926607785444</v>
       </c>
     </row>
     <row r="17">
@@ -5356,19 +5356,19 @@
         <v>147617</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>128386</v>
+        <v>126861</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>169884</v>
+        <v>171073</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3183739238335515</v>
+        <v>0.3183739238335516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2768982643163209</v>
+        <v>0.2736085651476272</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3663994393986504</v>
+        <v>0.3689638480316596</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>207</v>
@@ -5377,19 +5377,19 @@
         <v>155785</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137895</v>
+        <v>137525</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174652</v>
+        <v>174232</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2981737523047287</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2639319746954374</v>
+        <v>0.263223165566379</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.334284323693897</v>
+        <v>0.3334811214736275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>334</v>
@@ -5398,19 +5398,19 @@
         <v>303402</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>277065</v>
+        <v>275963</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>332363</v>
+        <v>331599</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3076715417875535</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.280964596106076</v>
+        <v>0.2798462366467437</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3370399470827137</v>
+        <v>0.3362659009116746</v>
       </c>
     </row>
     <row r="18">
@@ -5427,19 +5427,19 @@
         <v>136156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>114947</v>
+        <v>116860</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>157040</v>
+        <v>158801</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2936561890064148</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2479129374656679</v>
+        <v>0.2520394376781053</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3386980584158689</v>
+        <v>0.3424966714837903</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>208</v>
@@ -5448,19 +5448,19 @@
         <v>147528</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>131189</v>
+        <v>129208</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>166934</v>
+        <v>165035</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2823705049500922</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2510959566258328</v>
+        <v>0.2473050923761884</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3195133786786545</v>
+        <v>0.3158789620911598</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>334</v>
@@ -5469,19 +5469,19 @@
         <v>283684</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>257735</v>
+        <v>259533</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>312986</v>
+        <v>313166</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2876768485711689</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2613622465631251</v>
+        <v>0.2631858678273925</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.317390505214151</v>
+        <v>0.3175730357501824</v>
       </c>
     </row>
     <row r="19">
@@ -5498,19 +5498,19 @@
         <v>64142</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50188</v>
+        <v>49963</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81809</v>
+        <v>80676</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1383393952806982</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1082442905585727</v>
+        <v>0.107757706983649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1764421730335127</v>
+        <v>0.1739984578343222</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -5519,19 +5519,19 @@
         <v>64792</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53282</v>
+        <v>53079</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78243</v>
+        <v>77503</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.12401219665539</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1019815624615211</v>
+        <v>0.1015927921235914</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1497567316462894</v>
+        <v>0.1483412309330501</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>151</v>
@@ -5540,19 +5540,19 @@
         <v>128934</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>110641</v>
+        <v>110710</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>150739</v>
+        <v>150209</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1307486105629467</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1121977292404302</v>
+        <v>0.1122681067282602</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.152860088775945</v>
+        <v>0.1523225126869102</v>
       </c>
     </row>
     <row r="20">
@@ -5569,19 +5569,19 @@
         <v>63313</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49335</v>
+        <v>49206</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78592</v>
+        <v>79266</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1365507737250195</v>
+        <v>0.1365507737250196</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1064045736239757</v>
+        <v>0.1061260593378142</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1695046051337676</v>
+        <v>0.1709578297200722</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>145</v>
@@ -5590,19 +5590,19 @@
         <v>103301</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>88240</v>
+        <v>88320</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>118988</v>
+        <v>120164</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1977184817455013</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1688923561073117</v>
+        <v>0.1690449504581353</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2277430163834825</v>
+        <v>0.2299950174846478</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>202</v>
@@ -5611,19 +5611,19 @@
         <v>166614</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>147142</v>
+        <v>146269</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>192233</v>
+        <v>189929</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.1689584282431595</v>
+        <v>0.1689584282431594</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1492126686874775</v>
+        <v>0.1483270364546525</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.194938151426674</v>
+        <v>0.1926018421354493</v>
       </c>
     </row>
     <row r="21">
@@ -5715,19 +5715,19 @@
         <v>48784</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35911</v>
+        <v>35833</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65782</v>
+        <v>64881</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08191963875016711</v>
+        <v>0.08191963875016713</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06030314496370418</v>
+        <v>0.06017243792267316</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1104640491026054</v>
+        <v>0.1089499061629869</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>68</v>
@@ -5736,19 +5736,19 @@
         <v>45301</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35642</v>
+        <v>35954</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>56013</v>
+        <v>57466</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06841055142618019</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05382470685324866</v>
+        <v>0.0542955949849132</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08458652390181022</v>
+        <v>0.08678098381803673</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>111</v>
@@ -5757,19 +5757,19 @@
         <v>94085</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>77070</v>
+        <v>77125</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112072</v>
+        <v>112520</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0748069561213793</v>
+        <v>0.07480695612137932</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06127822355952521</v>
+        <v>0.06132234602054774</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08910844589787313</v>
+        <v>0.0894647970498407</v>
       </c>
     </row>
     <row r="23">
@@ -5786,19 +5786,19 @@
         <v>161960</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>140973</v>
+        <v>138283</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>183670</v>
+        <v>184645</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2719690962242023</v>
+        <v>0.2719690962242022</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2367271768483763</v>
+        <v>0.2322099795874298</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3084260368764383</v>
+        <v>0.3100637214671659</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>274</v>
@@ -5807,19 +5807,19 @@
         <v>180326</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>160539</v>
+        <v>164298</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>196664</v>
+        <v>198840</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.272316215442113</v>
+        <v>0.2723162154421129</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2424352037636057</v>
+        <v>0.2481115104324588</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2969880322492446</v>
+        <v>0.3002745096853581</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>429</v>
@@ -5828,19 +5828,19 @@
         <v>342286</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>316104</v>
+        <v>315331</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>373372</v>
+        <v>372525</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2721518582992514</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2513342833558628</v>
+        <v>0.2507200973499</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2968681710980447</v>
+        <v>0.2961946018538404</v>
       </c>
     </row>
     <row r="24">
@@ -5857,19 +5857,19 @@
         <v>183569</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>160643</v>
+        <v>161648</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>205560</v>
+        <v>206745</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3082560970153754</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2697582237361317</v>
+        <v>0.2714451408309581</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3451837165220478</v>
+        <v>0.3471747796601004</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>317</v>
@@ -5878,19 +5878,19 @@
         <v>201211</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>181350</v>
+        <v>183082</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>218641</v>
+        <v>219833</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.3038556384928474</v>
+        <v>0.3038556384928473</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.273862142968784</v>
+        <v>0.2764780072721897</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3301766091566588</v>
+        <v>0.3319769430419401</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>501</v>
@@ -5899,19 +5899,19 @@
         <v>384780</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>356524</v>
+        <v>354553</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>418568</v>
+        <v>414931</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3059392073439087</v>
+        <v>0.3059392073439088</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2834724041196116</v>
+        <v>0.2819051434853343</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3328035046807598</v>
+        <v>0.3299117173669791</v>
       </c>
     </row>
     <row r="25">
@@ -5928,19 +5928,19 @@
         <v>78631</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64938</v>
+        <v>63027</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>99683</v>
+        <v>96257</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1320398018693496</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.109045770555033</v>
+        <v>0.10583682343892</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1673916663946897</v>
+        <v>0.1616380958097304</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>154</v>
@@ -5949,19 +5949,19 @@
         <v>95458</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>81846</v>
+        <v>81157</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>111641</v>
+        <v>109780</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1441545412221173</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1235975545509085</v>
+        <v>0.1225580151716025</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1685929864454625</v>
+        <v>0.1657827737986438</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>227</v>
@@ -5970,19 +5970,19 @@
         <v>174089</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>153356</v>
+        <v>153446</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>198530</v>
+        <v>196394</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1384183449996262</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1219338699382623</v>
+        <v>0.1220051567373345</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.157851044913496</v>
+        <v>0.1561530469138171</v>
       </c>
     </row>
     <row r="26">
@@ -5999,19 +5999,19 @@
         <v>122565</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>100433</v>
+        <v>101905</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>144259</v>
+        <v>143760</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2058153661409056</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1686509748030347</v>
+        <v>0.1711220836163436</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2422449113007572</v>
+        <v>0.2414070343545201</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>220</v>
@@ -6020,19 +6020,19 @@
         <v>139897</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>123638</v>
+        <v>124472</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>156975</v>
+        <v>158874</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2112630534167422</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1867090989826835</v>
+        <v>0.1879685377858498</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2370533618111977</v>
+        <v>0.2399201145327984</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>337</v>
@@ -6041,19 +6041,19 @@
         <v>262462</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>236846</v>
+        <v>236103</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>287950</v>
+        <v>289128</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2086836332358344</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1883167342369117</v>
+        <v>0.187725680004635</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2289496440497005</v>
+        <v>0.2298856942666153</v>
       </c>
     </row>
     <row r="27">
@@ -6145,19 +6145,19 @@
         <v>50086</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>37503</v>
+        <v>37547</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>65199</v>
+        <v>65222</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09096267273142869</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06811124506844028</v>
+        <v>0.06819110192184916</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1184105657787716</v>
+        <v>0.118452375917871</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>54</v>
@@ -6166,19 +6166,19 @@
         <v>34518</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>25714</v>
+        <v>26795</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>43249</v>
+        <v>45078</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.06047922725250079</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04505279539274591</v>
+        <v>0.0469468504809832</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07577599973387909</v>
+        <v>0.07898203220817011</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>102</v>
@@ -6187,19 +6187,19 @@
         <v>84604</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>68302</v>
+        <v>70274</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>102401</v>
+        <v>102941</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07544742895866183</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06090997430984008</v>
+        <v>0.06266842262524078</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09131868109955298</v>
+        <v>0.09179951422204626</v>
       </c>
     </row>
     <row r="29">
@@ -6216,19 +6216,19 @@
         <v>130532</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>111113</v>
+        <v>112480</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>150841</v>
+        <v>149368</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2370632687505273</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2017961124981223</v>
+        <v>0.2042787724245192</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2739470698164413</v>
+        <v>0.2712720781257394</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>188</v>
@@ -6237,19 +6237,19 @@
         <v>117191</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>102307</v>
+        <v>103017</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>131401</v>
+        <v>132831</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2053299088418919</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1792529295886522</v>
+        <v>0.180495947842431</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2302279945729148</v>
+        <v>0.2327326693333333</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>324</v>
@@ -6258,19 +6258,19 @@
         <v>247722</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>224435</v>
+        <v>223460</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>272413</v>
+        <v>270597</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2209118525645923</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.200145103959871</v>
+        <v>0.1992753674609083</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2429299943477738</v>
+        <v>0.241310643445476</v>
       </c>
     </row>
     <row r="30">
@@ -6287,19 +6287,19 @@
         <v>153046</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>133481</v>
+        <v>134452</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>171639</v>
+        <v>172936</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2779522961456893</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2424199516535305</v>
+        <v>0.2441838094405108</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3117195588377757</v>
+        <v>0.3140745086506701</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>292</v>
@@ -6308,19 +6308,19 @@
         <v>175074</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>157566</v>
+        <v>160009</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>192227</v>
+        <v>191789</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3067479310535443</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2760717747637377</v>
+        <v>0.2803526692746345</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.336801056287112</v>
+        <v>0.336034724290629</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>470</v>
@@ -6329,19 +6329,19 @@
         <v>328120</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>300815</v>
+        <v>302531</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>353439</v>
+        <v>354061</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.2926084902919778</v>
+        <v>0.2926084902919777</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2682582907809931</v>
+        <v>0.2697886211702582</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3151867536964422</v>
+        <v>0.3157418784046864</v>
       </c>
     </row>
     <row r="31">
@@ -6358,19 +6358,19 @@
         <v>104498</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>89702</v>
+        <v>88645</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>124204</v>
+        <v>121648</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.189782254206197</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.16291132650444</v>
+        <v>0.1609912668753224</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2255706494477122</v>
+        <v>0.2209294877328915</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>184</v>
@@ -6379,19 +6379,19 @@
         <v>108164</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>94253</v>
+        <v>95641</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>123318</v>
+        <v>123306</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.18951403792912</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1651407434026756</v>
+        <v>0.1675731221961372</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2160649243500516</v>
+        <v>0.2160441793026101</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>303</v>
@@ -6400,19 +6400,19 @@
         <v>212662</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>192480</v>
+        <v>191535</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>237034</v>
+        <v>238094</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1896457394239179</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1716480837222457</v>
+        <v>0.1708051639255045</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2113801295961636</v>
+        <v>0.2123253960406653</v>
       </c>
     </row>
     <row r="32">
@@ -6429,19 +6429,19 @@
         <v>112458</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>93580</v>
+        <v>94904</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>131053</v>
+        <v>133523</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2042395081661576</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1699536816033019</v>
+        <v>0.1723578669023698</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2380105010663561</v>
+        <v>0.2424952368689342</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>225</v>
@@ -6450,19 +6450,19 @@
         <v>135796</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>120689</v>
+        <v>119341</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>152856</v>
+        <v>152136</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.237928894922943</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2114590623566544</v>
+        <v>0.2090976358838371</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.267820076413432</v>
+        <v>0.2665581342439013</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>347</v>
@@ -6471,19 +6471,19 @@
         <v>248255</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>225952</v>
+        <v>224837</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>272939</v>
+        <v>272468</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2213864887608503</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2014974590848594</v>
+        <v>0.2005030678380759</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2433994648051845</v>
+        <v>0.2429797153771313</v>
       </c>
     </row>
     <row r="33">
@@ -6575,19 +6575,19 @@
         <v>16892</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10582</v>
+        <v>10314</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>25166</v>
+        <v>24630</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04396871963464365</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02754426106762715</v>
+        <v>0.02684577328640526</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06550279154333566</v>
+        <v>0.06410811051359319</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>28</v>
@@ -6596,19 +6596,19 @@
         <v>14995</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>10199</v>
+        <v>10166</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>20754</v>
+        <v>20936</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.0355508015443288</v>
+        <v>0.03555080154432878</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02418038919170433</v>
+        <v>0.02410132536653663</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.04920386264632484</v>
+        <v>0.04963420857228759</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>50</v>
@@ -6617,19 +6617,19 @@
         <v>31888</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23963</v>
+        <v>23686</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>41726</v>
+        <v>42077</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03956337143147405</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02973088322907486</v>
+        <v>0.02938703892021054</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05176907303473181</v>
+        <v>0.05220462651354816</v>
       </c>
     </row>
     <row r="35">
@@ -6646,19 +6646,19 @@
         <v>69527</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>57219</v>
+        <v>56580</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82998</v>
+        <v>83701</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1809688283868154</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1489335178237705</v>
+        <v>0.1472688892775778</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2160320829036898</v>
+        <v>0.2178621218022982</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>161</v>
@@ -6667,19 +6667,19 @@
         <v>85445</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>74518</v>
+        <v>74581</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>98012</v>
+        <v>98240</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2025720495366285</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1766673504552909</v>
+        <v>0.1768167742941024</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2323649947383534</v>
+        <v>0.2329070926918452</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>255</v>
@@ -6688,19 +6688,19 @@
         <v>154972</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>137518</v>
+        <v>137426</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>173854</v>
+        <v>173381</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1922744398757774</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1706190504466627</v>
+        <v>0.1705044162476716</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2157011596756788</v>
+        <v>0.215114771736261</v>
       </c>
     </row>
     <row r="36">
@@ -6717,19 +6717,19 @@
         <v>114803</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>100923</v>
+        <v>100695</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>130074</v>
+        <v>131649</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2988165439931212</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2626871313141386</v>
+        <v>0.2620954718360481</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3385649003636673</v>
+        <v>0.3426628341010474</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>262</v>
@@ -6738,19 +6738,19 @@
         <v>141015</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>126404</v>
+        <v>127648</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>153894</v>
+        <v>156522</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3343156002440959</v>
+        <v>0.3343156002440957</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2996768308342802</v>
+        <v>0.3026255022467292</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3648509140320684</v>
+        <v>0.3710791429959793</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>426</v>
@@ -6759,19 +6759,19 @@
         <v>255818</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>234555</v>
+        <v>235378</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>277215</v>
+        <v>277291</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3173942614277178</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.291013683735574</v>
+        <v>0.2920347098935079</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3439421201897367</v>
+        <v>0.3440359344682862</v>
       </c>
     </row>
     <row r="37">
@@ -6788,19 +6788,19 @@
         <v>78291</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64429</v>
+        <v>65282</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>91915</v>
+        <v>92495</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2037800091408724</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1676997012845528</v>
+        <v>0.1699210761152126</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2392406641391499</v>
+        <v>0.2407507285064896</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>142</v>
@@ -6809,19 +6809,19 @@
         <v>74716</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>64210</v>
+        <v>64399</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>86679</v>
+        <v>85654</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.1771365028861912</v>
+        <v>0.1771365028861911</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1522287942893556</v>
+        <v>0.1526771459021126</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2054979196486562</v>
+        <v>0.203066685743246</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>254</v>
@@ -6830,19 +6830,19 @@
         <v>153007</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>136552</v>
+        <v>137087</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>171641</v>
+        <v>169621</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1898366657695177</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1694201123434064</v>
+        <v>0.1700840730394546</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2129551065198613</v>
+        <v>0.2104496307023915</v>
       </c>
     </row>
     <row r="38">
@@ -6859,19 +6859,19 @@
         <v>104679</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>90350</v>
+        <v>91200</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>120170</v>
+        <v>120079</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2724658988445474</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2351692165683851</v>
+        <v>0.2373812001387055</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3127842280587455</v>
+        <v>0.3125499409785164</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>203</v>
@@ -6880,19 +6880,19 @@
         <v>105630</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>93665</v>
+        <v>93246</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>118470</v>
+        <v>120114</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2504250457887557</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2220589993383102</v>
+        <v>0.2210658510059994</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2808664759004391</v>
+        <v>0.2847657021166855</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>352</v>
@@ -6901,19 +6901,19 @@
         <v>210309</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>192072</v>
+        <v>190526</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>231269</v>
+        <v>229421</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2609312614955132</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2383048796588592</v>
+        <v>0.2363858009835097</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2869369114231209</v>
+        <v>0.2846436208155432</v>
       </c>
     </row>
     <row r="39">
@@ -7005,19 +7005,19 @@
         <v>9004</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>5111</v>
+        <v>4983</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>15649</v>
+        <v>16158</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02974233913731125</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01688221392582319</v>
+        <v>0.01645987506742905</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.05169107356944697</v>
+        <v>0.05337387914769851</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>28</v>
@@ -7026,19 +7026,19 @@
         <v>16235</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>10800</v>
+        <v>10790</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>22942</v>
+        <v>23642</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.03704666971048896</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.02464437791125986</v>
+        <v>0.02462239368468835</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.05234972920933924</v>
+        <v>0.05394706294172658</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>40</v>
@@ -7047,19 +7047,19 @@
         <v>25240</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>18134</v>
+        <v>17975</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>34344</v>
+        <v>33607</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.03406234657655182</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.02447268560925078</v>
+        <v>0.02425851288751276</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04634996409593434</v>
+        <v>0.04535520692933358</v>
       </c>
     </row>
     <row r="41">
@@ -7076,19 +7076,19 @@
         <v>47102</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>36303</v>
+        <v>37268</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>58632</v>
+        <v>59684</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1555841343777869</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1199149023714676</v>
+        <v>0.123102848281986</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1936710602570008</v>
+        <v>0.1971450851848201</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>120</v>
@@ -7097,19 +7097,19 @@
         <v>64157</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>53242</v>
+        <v>53635</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>75196</v>
+        <v>76435</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1463972335342807</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1214902550627251</v>
+        <v>0.1223889027659484</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1715880591045162</v>
+        <v>0.1744133537523</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>185</v>
@@ -7118,19 +7118,19 @@
         <v>111259</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>96460</v>
+        <v>95249</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>126213</v>
+        <v>126663</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1501507165457341</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1301786501414479</v>
+        <v>0.1285443466792305</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.170332976348292</v>
+        <v>0.1709393569126704</v>
       </c>
     </row>
     <row r="42">
@@ -7147,19 +7147,19 @@
         <v>82089</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>69204</v>
+        <v>69527</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>94603</v>
+        <v>94129</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.271153666784533</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2285927863729009</v>
+        <v>0.2296598698892118</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3124888303583525</v>
+        <v>0.3109230433597532</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>220</v>
@@ -7168,19 +7168,19 @@
         <v>117939</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>104743</v>
+        <v>104530</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>132343</v>
+        <v>131139</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2691206886308677</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2390091778638885</v>
+        <v>0.2385240910321293</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3019897025993648</v>
+        <v>0.2992405879982258</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>339</v>
@@ -7189,19 +7189,19 @@
         <v>200029</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>183403</v>
+        <v>181525</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>220515</v>
+        <v>219429</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2699513005088474</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2475147400195151</v>
+        <v>0.2449790509034472</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.297599484129179</v>
+        <v>0.2961329788167056</v>
       </c>
     </row>
     <row r="43">
@@ -7218,19 +7218,19 @@
         <v>85507</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>73521</v>
+        <v>74500</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>99571</v>
+        <v>99860</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2824422853949243</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2428506976447841</v>
+        <v>0.2460845051194759</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.3288978035203801</v>
+        <v>0.3298512852988304</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>218</v>
@@ -7239,19 +7239,19 @@
         <v>111056</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>99074</v>
+        <v>98410</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>126699</v>
+        <v>125438</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.2534151009564494</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.2260731828454078</v>
+        <v>0.2245581234514624</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.289109074813815</v>
+        <v>0.2862323000229079</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>349</v>
@@ -7260,19 +7260,19 @@
         <v>196563</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>176939</v>
+        <v>176081</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>216732</v>
+        <v>213990</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.2652747090567321</v>
+        <v>0.265274709056732</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2387904687759057</v>
+        <v>0.2376328813231899</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2924941369859668</v>
+        <v>0.2887933985295159</v>
       </c>
     </row>
     <row r="44">
@@ -7289,19 +7289,19 @@
         <v>79039</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>67986</v>
+        <v>65781</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>91596</v>
+        <v>91787</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2610775743054445</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2245673373991179</v>
+        <v>0.2172836747320296</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3025557488796805</v>
+        <v>0.3031867944215044</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>251</v>
@@ -7310,19 +7310,19 @@
         <v>128851</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>113972</v>
+        <v>115455</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>142160</v>
+        <v>143309</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2940203071679133</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2600694646633733</v>
+        <v>0.2634530571747564</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.324389611425098</v>
+        <v>0.3270108587084624</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>373</v>
@@ -7331,19 +7331,19 @@
         <v>207890</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>189446</v>
+        <v>187799</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>227767</v>
+        <v>225627</v>
       </c>
       <c r="U44" s="6" t="n">
-        <v>0.2805609273121346</v>
+        <v>0.2805609273121345</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2556699786162621</v>
+        <v>0.2534462038555005</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3073859760304835</v>
+        <v>0.3044977489457455</v>
       </c>
     </row>
     <row r="45">
@@ -7435,19 +7435,19 @@
         <v>248042</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>215730</v>
+        <v>214785</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>284524</v>
+        <v>283057</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.08954787410597108</v>
+        <v>0.08954787410597106</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.07788258860472178</v>
+        <v>0.07754159526952767</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1027186450144394</v>
+        <v>0.1021891928240745</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>304</v>
@@ -7456,19 +7456,19 @@
         <v>231439</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>206485</v>
+        <v>207344</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>259779</v>
+        <v>260101</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.07232087750754188</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.06452314308607512</v>
+        <v>0.06479146502927764</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.08117673923137148</v>
+        <v>0.08127726117611961</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>518</v>
@@ -7477,19 +7477,19 @@
         <v>479481</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>439253</v>
+        <v>438488</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>526975</v>
+        <v>520319</v>
       </c>
       <c r="U46" s="6" t="n">
-        <v>0.08031364478014844</v>
+        <v>0.08031364478014845</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07357541957445812</v>
+        <v>0.07344731555766953</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.08826896836451373</v>
+        <v>0.08715415931961279</v>
       </c>
     </row>
     <row r="47">
@@ -7506,19 +7506,19 @@
         <v>731310</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>681608</v>
+        <v>679966</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>781808</v>
+        <v>778471</v>
       </c>
       <c r="G47" s="6" t="n">
-        <v>0.2640172980157824</v>
+        <v>0.2640172980157823</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2460735707772764</v>
+        <v>0.245481115271947</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2822479642543107</v>
+        <v>0.2810430388335397</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1090</v>
@@ -7527,19 +7527,19 @@
         <v>775679</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>729533</v>
+        <v>732202</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>818321</v>
+        <v>820514</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2423869255282635</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2279671178315268</v>
+        <v>0.2288011053265252</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2557116868075613</v>
+        <v>0.2563971151808211</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1770</v>
@@ -7548,19 +7548,19 @@
         <v>1506990</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1443020</v>
+        <v>1444935</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1575008</v>
+        <v>1571230</v>
       </c>
       <c r="U47" s="6" t="n">
-        <v>0.2524227162898577</v>
+        <v>0.2524227162898576</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2417077929254756</v>
+        <v>0.2420285364813884</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2638159575844633</v>
+        <v>0.2631830244485783</v>
       </c>
     </row>
     <row r="48">
@@ -7577,19 +7577,19 @@
         <v>808088</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>760690</v>
+        <v>754389</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>858175</v>
+        <v>856898</v>
       </c>
       <c r="G48" s="6" t="n">
-        <v>0.2917354045406607</v>
+        <v>0.2917354045406606</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2746237710714058</v>
+        <v>0.2723492391884345</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3098180211684604</v>
+        <v>0.309356805055131</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1426</v>
@@ -7598,19 +7598,19 @@
         <v>934644</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>889877</v>
+        <v>894290</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>980100</v>
+        <v>977567</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2920608117885256</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2780719503825637</v>
+        <v>0.2794507220353185</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3062651932726812</v>
+        <v>0.3054735760719445</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2271</v>
@@ -7619,19 +7619,19 @@
         <v>1742732</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1676284</v>
+        <v>1677915</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1810979</v>
+        <v>1811516</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2919098333874942</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2807797823058024</v>
+        <v>0.2810529375782141</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3033413856881211</v>
+        <v>0.3034312481661294</v>
       </c>
     </row>
     <row r="49">
@@ -7648,19 +7648,19 @@
         <v>462637</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>423499</v>
+        <v>424737</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>504806</v>
+        <v>506111</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1670208070954581</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1528914776586928</v>
+        <v>0.1533383622706213</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1822447223734343</v>
+        <v>0.1827159916854525</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>847</v>
@@ -7669,19 +7669,19 @@
         <v>524211</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>492796</v>
+        <v>489023</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>560276</v>
+        <v>560292</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1638072210708529</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1539904934614726</v>
+        <v>0.1528116327930422</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.17507689915646</v>
+        <v>0.1750821146945076</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1367</v>
@@ -7690,19 +7690,19 @@
         <v>986847</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>934052</v>
+        <v>938271</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1045140</v>
+        <v>1044911</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1652982206805883</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1564549465915624</v>
+        <v>0.157161682620092</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1750622323720184</v>
+        <v>0.1750239961330298</v>
       </c>
     </row>
     <row r="50">
@@ -7719,19 +7719,19 @@
         <v>519857</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>477767</v>
+        <v>479164</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>559576</v>
+        <v>562173</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.1876786162421278</v>
+        <v>0.1876786162421277</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1724831407417306</v>
+        <v>0.172987336579705</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2020176654577125</v>
+        <v>0.2029554175412802</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1134</v>
@@ -7740,19 +7740,19 @@
         <v>734196</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>696342</v>
+        <v>693034</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>776907</v>
+        <v>775510</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.229424164104816</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.2175954313979455</v>
+        <v>0.216561617141391</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.2427707354579591</v>
+        <v>0.2423339689757521</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1724</v>
@@ -7761,19 +7761,19 @@
         <v>1254053</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1199403</v>
+        <v>1198900</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1318359</v>
+        <v>1315920</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.2100555848619113</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.2009015592776648</v>
+        <v>0.2008173187069311</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.2208267737441068</v>
+        <v>0.2204183612436821</v>
       </c>
     </row>
     <row r="51">
